--- a/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/% Indígenas urbanos (sobre total urbano) Panama.xlsx
+++ b/PANAMÁ/Indígenas/Indicadores sociodemo poblaciones y PI CELADE/% Indígenas urbanos (sobre total urbano) Panama.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Indígenas\Indicadores sociodemo poblaciones y PI CELADE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67023212-06AE-436B-AB6C-45095F95EF0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E9C220-4DC2-4267-B7BF-EAEAC97F7C51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="27">
   <si>
     <t>CEPAL/CELADE Redatam+SP 10/12/2020</t>
   </si>
@@ -256,9 +256,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -271,7 +269,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,16 +279,16 @@
   <dxfs count="3">
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color indexed="64"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color indexed="64"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -339,8 +339,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A10F716-0E05-42D4-AE47-2E721894C9F1}" name="Tabla1" displayName="Tabla1" ref="A1:D25" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:D25" xr:uid="{261E20D7-1354-4B7C-827F-F556A3DC8C55}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A10F716-0E05-42D4-AE47-2E721894C9F1}" name="Tabla1" displayName="Tabla1" ref="A1:D19" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:D19" xr:uid="{261E20D7-1354-4B7C-827F-F556A3DC8C55}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BDED32DD-6107-4578-BE8D-F6DC4DC01E75}" name="Sexo"/>
     <tableColumn id="2" xr3:uid="{0BE2FCB4-294C-48B8-A8AC-7C2F3FEC71AD}" name="Grupo edad"/>
@@ -871,10 +871,10 @@
     </row>
     <row r="12" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="4"/>
@@ -893,8 +893,8 @@
     </row>
     <row r="13" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
@@ -913,8 +913,8 @@
     </row>
     <row r="14" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
@@ -933,8 +933,8 @@
     </row>
     <row r="15" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="4" t="s">
         <v>18</v>
       </c>
@@ -953,8 +953,8 @@
     </row>
     <row r="16" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="4" t="s">
         <v>19</v>
       </c>
@@ -973,8 +973,8 @@
     </row>
     <row r="17" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="4"/>
@@ -993,8 +993,8 @@
     </row>
     <row r="18" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1013,8 +1013,8 @@
     </row>
     <row r="19" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1033,8 +1033,8 @@
     </row>
     <row r="20" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1053,8 +1053,8 @@
     </row>
     <row r="21" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1073,8 +1073,8 @@
     </row>
     <row r="22" spans="1:12" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="4"/>
@@ -1093,8 +1093,8 @@
     </row>
     <row r="23" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="4" t="s">
         <v>16</v>
       </c>
@@ -1113,8 +1113,8 @@
     </row>
     <row r="24" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="4" t="s">
         <v>17</v>
       </c>
@@ -1133,8 +1133,8 @@
     </row>
     <row r="25" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="4" t="s">
         <v>18</v>
       </c>
@@ -1153,8 +1153,8 @@
     </row>
     <row r="26" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1217,21 +1217,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B12:B26"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:B26"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="A28:K28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1244,40 +1244,40 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="A1:L1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>2000</v>
       </c>
       <c r="D2">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1285,13 +1285,13 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>2000</v>
       </c>
       <c r="D3">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,27 +1299,27 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>2000</v>
       </c>
       <c r="D4">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D5">
-        <v>1.78</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,55 +1327,55 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>2010</v>
       </c>
       <c r="D6">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>2010</v>
       </c>
       <c r="D7">
-        <v>6.21</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
-        <v>2010</v>
-      </c>
-      <c r="D8">
-        <v>4.29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
       <c r="C9">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D9">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1383,13 +1383,13 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>2000</v>
       </c>
       <c r="D10">
-        <v>2.73</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1400,13 +1400,13 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D11">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1414,10 +1414,10 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D12">
-        <v>2.54</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1428,177 +1428,93 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D13">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="D14">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>2000</v>
+      </c>
+      <c r="D15">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>2000</v>
+      </c>
+      <c r="D16">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
-      </c>
-      <c r="C15">
-        <v>2010</v>
-      </c>
-      <c r="D15">
-        <v>6.28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>2010</v>
-      </c>
-      <c r="D16">
-        <v>3.86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
       </c>
       <c r="C17">
         <v>2010</v>
       </c>
       <c r="D17">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D18">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="D19">
-        <v>3.51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>2000</v>
-      </c>
-      <c r="D20">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>2000</v>
-      </c>
-      <c r="D21">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22">
-        <v>2010</v>
-      </c>
-      <c r="D22">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>2010</v>
-      </c>
-      <c r="D23">
-        <v>6.24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24">
-        <v>2010</v>
-      </c>
-      <c r="D24">
-        <v>4.07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>2010</v>
-      </c>
-      <c r="D25">
         <v>2.13</v>
       </c>
     </row>
